--- a/data/trans_orig/P34B03-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Clase-trans_orig.xlsx
@@ -651,7 +651,7 @@
         <v>0.7738633205659534</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.814522222836047</v>
+        <v>0.8145222228360469</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8165159308121975</v>
@@ -660,7 +660,7 @@
         <v>0.9301099547415553</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9166313390293263</v>
+        <v>0.9166313390293261</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7487885371041059</v>
+        <v>0.7448012126637681</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8912380396788686</v>
+        <v>0.8914411855251752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8529683678536181</v>
+        <v>0.8517422859321</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5108510171276714</v>
+        <v>0.5212323599466738</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.617760705348426</v>
+        <v>0.6218697007479309</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6875502354025703</v>
+        <v>0.6892449294987081</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6942116548265286</v>
+        <v>0.7012510188637812</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8093774342126688</v>
+        <v>0.8055558080187912</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8125468346533005</v>
+        <v>0.8120091812277634</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.130352333442486</v>
+        <v>1.108760229396567</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.25540676309462</v>
+        <v>1.252838082897451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.1827717202271</v>
+        <v>1.173067454380145</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8527689261604432</v>
+        <v>0.8611636275180756</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.956166400353924</v>
+        <v>0.9565013294403093</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.994094840909704</v>
+        <v>0.9726190632564814</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9572421917570075</v>
+        <v>0.9614496141944828</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.051650752176457</v>
+        <v>1.054378227017428</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.028687774624228</v>
+        <v>1.030340445616064</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.7670318059674474</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.5756132579834529</v>
+        <v>0.5756132579834528</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.8088984493162854</v>
@@ -769,7 +769,7 @@
         <v>0.9281283027658981</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8201757754068814</v>
+        <v>0.8201757754068815</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8672797546089396</v>
+        <v>0.8658211693415619</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8797429911869202</v>
+        <v>0.8986018246707039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8588763547159989</v>
+        <v>0.8591120425502921</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3762929857187127</v>
+        <v>0.3749782373419098</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6137220411787684</v>
+        <v>0.6105793391317639</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4745084908423179</v>
+        <v>0.4710776647617407</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6892755068415981</v>
+        <v>0.6786122847078377</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8001026527812251</v>
+        <v>0.8009797559057238</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.710685819060438</v>
+        <v>0.7138659309639349</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.279337638828556</v>
+        <v>1.263511332969633</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.29863539021513</v>
+        <v>1.300340239557479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.248964804836992</v>
+        <v>1.270132365209167</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7028586017480213</v>
+        <v>0.7334527770013882</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9806224558827877</v>
+        <v>0.959899179699968</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6933480308408319</v>
+        <v>0.6953813624050521</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9691553367535707</v>
+        <v>0.9596890610267381</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.061453921458067</v>
+        <v>1.070275921643142</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9485636593471894</v>
+        <v>0.9550345952234979</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.6810884765418265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8176785053594002</v>
+        <v>0.8176785053594</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3333670029679521</v>
@@ -869,7 +869,7 @@
         <v>0.349792127409526</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3456497074170568</v>
+        <v>0.3456497074170567</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5578788575165115</v>
@@ -878,7 +878,7 @@
         <v>0.601098710116466</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6834000809498358</v>
+        <v>0.683400080949836</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.531645868193282</v>
+        <v>0.5178851582564167</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5598866218074694</v>
+        <v>0.563309768771458</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6610323980305395</v>
+        <v>0.6604368009492771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2122967339725911</v>
+        <v>0.2171431998187378</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2103993727794264</v>
+        <v>0.2130445701531662</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2223596456112552</v>
+        <v>0.21746642869608</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.462348149999547</v>
+        <v>0.4653420138394032</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4973435007142412</v>
+        <v>0.4905039811656618</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5669387405643175</v>
+        <v>0.5601417301269065</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8093974566386259</v>
+        <v>0.7983374992173872</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8273666592466704</v>
+        <v>0.8395657672289105</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.002262366993499</v>
+        <v>0.9955912601611029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5143078593286227</v>
+        <v>0.5262139150393581</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5222947969507695</v>
+        <v>0.522197998609512</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6247446933183554</v>
+        <v>0.6188431604284478</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6584859817633664</v>
+        <v>0.6716302201302887</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7106422368970846</v>
+        <v>0.7206964728902241</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8420174849740708</v>
+        <v>0.8270007366838791</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.6723317841201341</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6058056438009248</v>
+        <v>0.6058056438009249</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2997151878103131</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5562863613663683</v>
+        <v>0.539299259516239</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5817853291939146</v>
+        <v>0.5853379091778518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5164851255911648</v>
+        <v>0.510320581880277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.233616019754218</v>
+        <v>0.2264298785813235</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4024217234942522</v>
+        <v>0.4055996412925241</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3573767997481505</v>
+        <v>0.3640280652422928</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4471737864391431</v>
+        <v>0.44186619033518</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.535006887194357</v>
+        <v>0.5268934207476205</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.466419046712934</v>
+        <v>0.4601047813396974</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7320434493949552</v>
+        <v>0.7316017915633527</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7622030254889146</v>
+        <v>0.7646547488063818</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7264120488606903</v>
+        <v>0.7157039546618739</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3846667437270789</v>
+        <v>0.3772555424241369</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5840550407876717</v>
+        <v>0.5903300408348943</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5318219882011643</v>
+        <v>0.5293952592130879</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5758492661821608</v>
+        <v>0.5785906828193008</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6659161185378543</v>
+        <v>0.6657878222433092</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6070379779728092</v>
+        <v>0.6017410819162288</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.6203885897114897</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7557643996810093</v>
+        <v>0.7557643996810092</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2140648224795197</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3444291504427717</v>
+        <v>0.3381901477256518</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5044702896547415</v>
+        <v>0.5117422567408917</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.61421436856482</v>
+        <v>0.5997639607415909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1612960592728177</v>
+        <v>0.152914134435233</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.264104665914168</v>
+        <v>0.2614859701968997</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1389882969469512</v>
+        <v>0.1354572995392097</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2501941488756455</v>
+        <v>0.2551024884372196</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3976239369772485</v>
+        <v>0.3988915660345017</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3462132175402092</v>
+        <v>0.3431620602405081</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5849622413630781</v>
+        <v>0.5681945942637239</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7492221699879333</v>
+        <v>0.7657859229439988</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9474797550557366</v>
+        <v>0.9482921038015893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2989580455267254</v>
+        <v>0.2820252358075554</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4434550473465484</v>
+        <v>0.437762205391373</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2284999780673831</v>
+        <v>0.2261339758713977</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.373692230131424</v>
+        <v>0.3825380658850168</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5475334130808781</v>
+        <v>0.5449195611674491</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4981780466075207</v>
+        <v>0.4929757400297964</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.382082381717562</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.3335298553991446</v>
+        <v>0.3335298553991445</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.4464523034060509</v>
@@ -1205,7 +1205,7 @@
         <v>0.7128791725434538</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.6195214530051651</v>
+        <v>0.6195214530051654</v>
       </c>
     </row>
     <row r="20">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.117076248440404</v>
+        <v>1.128486851712344</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.704629729710654</v>
+        <v>1.69427143317639</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.271277053342777</v>
+        <v>1.25649028054428</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1785679207388699</v>
+        <v>0.17907234997136</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.309645729808617</v>
+        <v>0.3074911781053944</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2584595852806796</v>
+        <v>0.2609952084064615</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3785414931390904</v>
+        <v>0.3828785957929011</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6293593500995459</v>
+        <v>0.6253542522522896</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5131688767744745</v>
+        <v>0.5075069417742215</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.589045095465658</v>
+        <v>1.607940265713961</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.248804663499301</v>
+        <v>2.254750010136412</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.057400872208365</v>
+        <v>2.087132501059811</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.287016667853564</v>
+        <v>0.28767407138896</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4623946878917736</v>
+        <v>0.4611869842117193</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4295764756799167</v>
+        <v>0.4397138664865774</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5227974356163295</v>
+        <v>0.5196545942538817</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8078745748014372</v>
+        <v>0.8110588644204565</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7619683765100198</v>
+        <v>0.7346111540792951</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.8682144091015764</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8549789781163507</v>
+        <v>0.8549789781163509</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3158154163071348</v>
@@ -1305,7 +1305,7 @@
         <v>0.4755451818197218</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.4156895349845152</v>
+        <v>0.4156895349845153</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.5311965922799702</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6977196253829644</v>
+        <v>0.6941087298647297</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8054701703595704</v>
+        <v>0.8119811294023093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7912130813258952</v>
+        <v>0.7888242361219795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2809703952660105</v>
+        <v>0.279171604224625</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4336043859531384</v>
+        <v>0.4294358029138715</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3777210549383223</v>
+        <v>0.3790867497475682</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4950990567669896</v>
+        <v>0.4947624995664894</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6327471763788769</v>
+        <v>0.6306524586160814</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5901448399950051</v>
+        <v>0.591003016631314</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8137968278856331</v>
+        <v>0.8127636750093983</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9322196410865626</v>
+        <v>0.9304902051762919</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9247874119475824</v>
+        <v>0.9277061339402835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3585794105761586</v>
+        <v>0.3572612081287239</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.522148433922334</v>
+        <v>0.5179708844644456</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4542309996356879</v>
+        <v>0.455785395174388</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.564764271235039</v>
+        <v>0.5674084744107538</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7056791697254128</v>
+        <v>0.709572628149555</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6706162950839086</v>
+        <v>0.6713856183887009</v>
       </c>
     </row>
     <row r="25">
